--- a/Quarterly LEIs from FactSet.xlsx
+++ b/Quarterly LEIs from FactSet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex.zhang\Documents\Python Projects\EPS Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61322C25-A320-40D4-9A8B-D04216451CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2850FD9C-8446-4B9F-8428-CA9A278B8CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28750" yWindow="-16850" windowWidth="29020" windowHeight="15820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -369,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D122"/>
+  <dimension ref="A1:D123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C122" sqref="C122"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="C123" sqref="C123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2208,6 +2208,17 @@
         <v>15.6</v>
       </c>
     </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A123" s="1">
+        <v>45565</v>
+      </c>
+      <c r="B123">
+        <v>52</v>
+      </c>
+      <c r="D123">
+        <v>7.9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Quarterly LEIs from FactSet.xlsx
+++ b/Quarterly LEIs from FactSet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex.zhang\Documents\Python Projects\EPS Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2850FD9C-8446-4B9F-8428-CA9A278B8CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC2E9EC-8179-4CC1-AE96-3D90D0898F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -369,15 +369,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D123"/>
+  <dimension ref="A1:D124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="C123" sqref="C123"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="C121" sqref="C121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -792,7 +792,7 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>15.6973</v>
+        <v>15.0441</v>
       </c>
       <c r="D28">
         <v>43.9</v>
@@ -807,7 +807,7 @@
         <v>45</v>
       </c>
       <c r="C29">
-        <v>3.0080399999999998</v>
+        <v>10.1196</v>
       </c>
       <c r="D29">
         <v>59.6</v>
@@ -822,7 +822,7 @@
         <v>52</v>
       </c>
       <c r="C30">
-        <v>-0.94733599999999996</v>
+        <v>5.0726500000000003</v>
       </c>
       <c r="D30">
         <v>50.9</v>
@@ -837,7 +837,7 @@
         <v>48</v>
       </c>
       <c r="C31">
-        <v>-15.0222</v>
+        <v>-12.729900000000001</v>
       </c>
       <c r="D31">
         <v>40.4</v>
@@ -852,7 +852,7 @@
         <v>40</v>
       </c>
       <c r="C32">
-        <v>-25.195599999999999</v>
+        <v>-19.738499999999998</v>
       </c>
       <c r="D32">
         <v>50.9</v>
@@ -867,7 +867,7 @@
         <v>66</v>
       </c>
       <c r="C33">
-        <v>-28.352499999999999</v>
+        <v>-18.8416</v>
       </c>
       <c r="D33">
         <v>45.5</v>
@@ -882,7 +882,7 @@
         <v>61</v>
       </c>
       <c r="C34">
-        <v>-30.549099999999999</v>
+        <v>-20.462499999999999</v>
       </c>
       <c r="D34">
         <v>25</v>
@@ -897,7 +897,7 @@
         <v>54</v>
       </c>
       <c r="C35">
-        <v>-13.836499999999999</v>
+        <v>-9.0701000000000001</v>
       </c>
       <c r="D35">
         <v>21.4</v>
@@ -912,7 +912,7 @@
         <v>58</v>
       </c>
       <c r="C36">
-        <v>-3.73922</v>
+        <v>-2.34884</v>
       </c>
       <c r="D36">
         <v>20</v>
@@ -927,7 +927,7 @@
         <v>53</v>
       </c>
       <c r="C37">
-        <v>13.7872</v>
+        <v>5.5220700000000003</v>
       </c>
       <c r="D37">
         <v>22</v>
@@ -942,7 +942,7 @@
         <v>60</v>
       </c>
       <c r="C38">
-        <v>20.9711</v>
+        <v>10.2902</v>
       </c>
       <c r="D38">
         <v>8.9</v>
@@ -957,7 +957,7 @@
         <v>67</v>
       </c>
       <c r="C39">
-        <v>20.828900000000001</v>
+        <v>13.514799999999999</v>
       </c>
       <c r="D39">
         <v>3.4</v>
@@ -972,7 +972,7 @@
         <v>66</v>
       </c>
       <c r="C40">
-        <v>27.111499999999999</v>
+        <v>20.1631</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -987,7 +987,7 @@
         <v>73</v>
       </c>
       <c r="C41">
-        <v>28.8355</v>
+        <v>20.9313</v>
       </c>
       <c r="D41">
         <v>-17.899999999999999</v>
@@ -1002,7 +1002,7 @@
         <v>70</v>
       </c>
       <c r="C42">
-        <v>33.374200000000002</v>
+        <v>25.1936</v>
       </c>
       <c r="D42">
         <v>-22.8</v>
@@ -1017,7 +1017,7 @@
         <v>63</v>
       </c>
       <c r="C43">
-        <v>31.193899999999999</v>
+        <v>28.482800000000001</v>
       </c>
       <c r="D43">
         <v>-20</v>
@@ -1032,7 +1032,7 @@
         <v>61</v>
       </c>
       <c r="C44">
-        <v>29.108799999999999</v>
+        <v>26.561199999999999</v>
       </c>
       <c r="D44">
         <v>-21.1</v>
@@ -1047,7 +1047,7 @@
         <v>62</v>
       </c>
       <c r="C45">
-        <v>19.0473</v>
+        <v>20.5869</v>
       </c>
       <c r="D45">
         <v>-23.6</v>
@@ -1062,7 +1062,7 @@
         <v>55</v>
       </c>
       <c r="C46">
-        <v>19.418399999999998</v>
+        <v>21.6586</v>
       </c>
       <c r="D46">
         <v>-24.1</v>
@@ -1077,7 +1077,7 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>17.546199999999999</v>
+        <v>17.5289</v>
       </c>
       <c r="D47">
         <v>-16.7</v>
@@ -1092,7 +1092,7 @@
         <v>56</v>
       </c>
       <c r="C48">
-        <v>16.281099999999999</v>
+        <v>16.545400000000001</v>
       </c>
       <c r="D48">
         <v>-8.8000000000000007</v>
@@ -1107,7 +1107,7 @@
         <v>57</v>
       </c>
       <c r="C49">
-        <v>14.712</v>
+        <v>13.2509</v>
       </c>
       <c r="D49">
         <v>-10.7</v>
@@ -1122,7 +1122,7 @@
         <v>50</v>
       </c>
       <c r="C50">
-        <v>14.9184</v>
+        <v>20.065300000000001</v>
       </c>
       <c r="D50">
         <v>-12.3</v>
@@ -1137,7 +1137,7 @@
         <v>44</v>
       </c>
       <c r="C51">
-        <v>11.8651</v>
+        <v>18.9617</v>
       </c>
       <c r="D51">
         <v>-8.9</v>
@@ -1152,7 +1152,7 @@
         <v>50</v>
       </c>
       <c r="C52">
-        <v>12.8621</v>
+        <v>20.684200000000001</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -1167,7 +1167,7 @@
         <v>53</v>
       </c>
       <c r="C53">
-        <v>17.808700000000002</v>
+        <v>17.364100000000001</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -1182,7 +1182,7 @@
         <v>45</v>
       </c>
       <c r="C54">
-        <v>16.5989</v>
+        <v>9.9834099999999992</v>
       </c>
       <c r="D54">
         <v>-3.8</v>
@@ -1197,7 +1197,7 @@
         <v>44</v>
       </c>
       <c r="C55">
-        <v>17.375699999999998</v>
+        <v>7.9380300000000004</v>
       </c>
       <c r="D55">
         <v>7.5</v>
@@ -1212,7 +1212,7 @@
         <v>39</v>
       </c>
       <c r="C56">
-        <v>5.7294400000000003</v>
+        <v>1.53691</v>
       </c>
       <c r="D56">
         <v>19.2</v>
@@ -1227,7 +1227,7 @@
         <v>38</v>
       </c>
       <c r="C57">
-        <v>-9.8045200000000001</v>
+        <v>-0.50114000000000003</v>
       </c>
       <c r="D57">
         <v>32.1</v>
@@ -1242,7 +1242,7 @@
         <v>39</v>
       </c>
       <c r="C58">
-        <v>-17.074400000000001</v>
+        <v>-7.1195500000000003</v>
       </c>
       <c r="D58">
         <v>55.4</v>
@@ -1257,7 +1257,7 @@
         <v>40</v>
       </c>
       <c r="C59">
-        <v>-24.5931</v>
+        <v>-12.5177</v>
       </c>
       <c r="D59">
         <v>57.7</v>
@@ -1272,7 +1272,7 @@
         <v>24</v>
       </c>
       <c r="C60">
-        <v>-22.453600000000002</v>
+        <v>-17.616599999999998</v>
       </c>
       <c r="D60">
         <v>83.6</v>
@@ -1287,7 +1287,7 @@
         <v>30</v>
       </c>
       <c r="C61">
-        <v>-31.092600000000001</v>
+        <v>-37.253599999999999</v>
       </c>
       <c r="D61">
         <v>64.2</v>
@@ -1302,7 +1302,7 @@
         <v>55</v>
       </c>
       <c r="C62">
-        <v>-35.246899999999997</v>
+        <v>-44.868899999999996</v>
       </c>
       <c r="D62">
         <v>39.6</v>
@@ -1317,7 +1317,7 @@
         <v>63</v>
       </c>
       <c r="C63">
-        <v>-35.921500000000002</v>
+        <v>-47.591700000000003</v>
       </c>
       <c r="D63">
         <v>31.5</v>
@@ -1332,7 +1332,7 @@
         <v>64</v>
       </c>
       <c r="C64">
-        <v>-35.688800000000001</v>
+        <v>-43.181399999999996</v>
       </c>
       <c r="D64">
         <v>14</v>
@@ -1347,7 +1347,7 @@
         <v>62</v>
       </c>
       <c r="C65">
-        <v>14.0983</v>
+        <v>14.3802</v>
       </c>
       <c r="D65">
         <v>-5.5</v>
@@ -1362,7 +1362,7 @@
         <v>62</v>
       </c>
       <c r="C66">
-        <v>41.914299999999997</v>
+        <v>51.725099999999998</v>
       </c>
       <c r="D66">
         <v>-7.1</v>
@@ -1377,7 +1377,7 @@
         <v>50</v>
       </c>
       <c r="C67">
-        <v>67.339399999999998</v>
+        <v>83.839600000000004</v>
       </c>
       <c r="D67">
         <v>-8.8000000000000007</v>
@@ -1392,7 +1392,7 @@
         <v>62</v>
       </c>
       <c r="C68">
-        <v>84.157499999999999</v>
+        <v>93.140500000000003</v>
       </c>
       <c r="D68">
         <v>-10.5</v>
@@ -1407,7 +1407,7 @@
         <v>67</v>
       </c>
       <c r="C69">
-        <v>35.532200000000003</v>
+        <v>36.615200000000002</v>
       </c>
       <c r="D69">
         <v>-10.5</v>
@@ -1422,7 +1422,7 @@
         <v>55</v>
       </c>
       <c r="C70">
-        <v>28.997800000000002</v>
+        <v>27.8963</v>
       </c>
       <c r="D70">
         <v>-16.399999999999999</v>
@@ -1437,7 +1437,7 @@
         <v>42</v>
       </c>
       <c r="C71">
-        <v>21.9284</v>
+        <v>19.7849</v>
       </c>
       <c r="D71">
         <v>-21.8</v>
@@ -1452,7 +1452,7 @@
         <v>49</v>
       </c>
       <c r="C72">
-        <v>17.067799999999998</v>
+        <v>16.312799999999999</v>
       </c>
       <c r="D72">
         <v>-5.9</v>
@@ -1467,7 +1467,7 @@
         <v>63</v>
       </c>
       <c r="C73">
-        <v>14.596500000000001</v>
+        <v>16.4755</v>
       </c>
       <c r="D73">
         <v>5.4</v>
@@ -1482,7 +1482,7 @@
         <v>47</v>
       </c>
       <c r="C74">
-        <v>10.313499999999999</v>
+        <v>11.7433</v>
       </c>
       <c r="D74">
         <v>-6.9</v>
@@ -1497,7 +1497,7 @@
         <v>42</v>
       </c>
       <c r="C75">
-        <v>8.7267899999999994</v>
+        <v>10.3254</v>
       </c>
       <c r="D75">
         <v>-9.5</v>
@@ -1512,7 +1512,7 @@
         <v>46</v>
       </c>
       <c r="C76">
-        <v>6.7726899999999999</v>
+        <v>6.8908500000000004</v>
       </c>
       <c r="D76">
         <v>-7.6</v>
@@ -1527,7 +1527,7 @@
         <v>54</v>
       </c>
       <c r="C77">
-        <v>2.3163900000000002</v>
+        <v>1.9538800000000001</v>
       </c>
       <c r="D77">
         <v>-7.4</v>
@@ -1542,7 +1542,7 @@
         <v>62</v>
       </c>
       <c r="C78">
-        <v>3.1318100000000002</v>
+        <v>1.64524</v>
       </c>
       <c r="D78">
         <v>-19.100000000000001</v>
@@ -1557,7 +1557,7 @@
         <v>54</v>
       </c>
       <c r="C79">
-        <v>3.1800899999999999</v>
+        <v>1.54498</v>
       </c>
       <c r="D79">
         <v>-18.100000000000001</v>
@@ -1572,7 +1572,7 @@
         <v>60</v>
       </c>
       <c r="C80">
-        <v>4.0679999999999996</v>
+        <v>4.2165299999999997</v>
       </c>
       <c r="D80">
         <v>-8.3000000000000007</v>
@@ -1587,7 +1587,7 @@
         <v>63</v>
       </c>
       <c r="C81">
-        <v>10.701000000000001</v>
+        <v>8.0737500000000004</v>
       </c>
       <c r="D81">
         <v>-13.7</v>
@@ -1602,7 +1602,7 @@
         <v>62</v>
       </c>
       <c r="C82">
-        <v>9.9161999999999999</v>
+        <v>9.1574299999999997</v>
       </c>
       <c r="D82">
         <v>-11.1</v>
@@ -1617,7 +1617,7 @@
         <v>59</v>
       </c>
       <c r="C83">
-        <v>10.1966</v>
+        <v>10.597300000000001</v>
       </c>
       <c r="D83">
         <v>-10.7</v>
@@ -1632,7 +1632,7 @@
         <v>60</v>
       </c>
       <c r="C84">
-        <v>10.2707</v>
+        <v>9.7029700000000005</v>
       </c>
       <c r="D84">
         <v>-10.5</v>
@@ -1647,7 +1647,7 @@
         <v>57</v>
       </c>
       <c r="C85">
-        <v>1.90448</v>
+        <v>0.521424</v>
       </c>
       <c r="D85">
         <v>-5.5</v>
@@ -1662,7 +1662,7 @@
         <v>58</v>
       </c>
       <c r="C86">
-        <v>-0.45334999999999998</v>
+        <v>-1.67926</v>
       </c>
       <c r="D86">
         <v>-5.3</v>
@@ -1677,7 +1677,7 @@
         <v>48</v>
       </c>
       <c r="C87">
-        <v>-3.8195299999999999</v>
+        <v>-5.9399100000000002</v>
       </c>
       <c r="D87">
         <v>-7</v>
@@ -1692,7 +1692,7 @@
         <v>45</v>
       </c>
       <c r="C88">
-        <v>-5.6088500000000003</v>
+        <v>-6.9796899999999997</v>
       </c>
       <c r="D88">
         <v>7.4</v>
@@ -1707,7 +1707,7 @@
         <v>47</v>
       </c>
       <c r="C89">
-        <v>-2.76078</v>
+        <v>-1.7497499999999999</v>
       </c>
       <c r="D89">
         <v>8.1999999999999993</v>
@@ -1722,7 +1722,7 @@
         <v>52</v>
       </c>
       <c r="C90">
-        <v>-2.9305500000000002</v>
+        <v>-2.7810000000000001</v>
       </c>
       <c r="D90">
         <v>11.6</v>
@@ -1737,7 +1737,7 @@
         <v>50</v>
       </c>
       <c r="C91">
-        <v>-2.2850100000000002</v>
+        <v>-1.05887</v>
       </c>
       <c r="D91">
         <v>8.5</v>
@@ -1752,7 +1752,7 @@
         <v>65</v>
       </c>
       <c r="C92">
-        <v>-2.5994600000000001</v>
+        <v>-2.0750299999999999</v>
       </c>
       <c r="D92">
         <v>1.5</v>
@@ -1767,7 +1767,7 @@
         <v>68</v>
       </c>
       <c r="C93">
-        <v>-0.14377100000000001</v>
+        <v>-0.114522</v>
       </c>
       <c r="D93">
         <v>1.4</v>
@@ -1782,7 +1782,7 @@
         <v>61</v>
       </c>
       <c r="C94">
-        <v>5.3756500000000003</v>
+        <v>5.4486699999999999</v>
       </c>
       <c r="D94">
         <v>-2.8</v>
@@ -1797,7 +1797,7 @@
         <v>59</v>
       </c>
       <c r="C95">
-        <v>8.64954</v>
+        <v>8.8250799999999998</v>
       </c>
       <c r="D95">
         <v>-3.9</v>
@@ -1812,7 +1812,7 @@
         <v>63</v>
       </c>
       <c r="C96">
-        <v>9.5973199999999999</v>
+        <v>11.8857</v>
       </c>
       <c r="D96">
         <v>-8.5</v>
@@ -1827,7 +1827,7 @@
         <v>65</v>
       </c>
       <c r="C97">
-        <v>10.4491</v>
+        <v>10.1342</v>
       </c>
       <c r="D97">
         <v>-10</v>
@@ -1842,7 +1842,7 @@
         <v>63</v>
       </c>
       <c r="C98">
-        <v>11.5633</v>
+        <v>11.241099999999999</v>
       </c>
       <c r="D98">
         <v>-11.3</v>
@@ -1857,7 +1857,7 @@
         <v>55</v>
       </c>
       <c r="C99">
-        <v>15.9064</v>
+        <v>14.6891</v>
       </c>
       <c r="D99">
         <v>-15.9</v>
@@ -1872,7 +1872,7 @@
         <v>42</v>
       </c>
       <c r="C100">
-        <v>22.0961</v>
+        <v>19.074200000000001</v>
       </c>
       <c r="D100">
         <v>-15.9</v>
@@ -1887,7 +1887,7 @@
         <v>43</v>
       </c>
       <c r="C101">
-        <v>23.971399999999999</v>
+        <v>24.1663</v>
       </c>
       <c r="D101">
         <v>2.8</v>
@@ -1902,7 +1902,7 @@
         <v>43</v>
       </c>
       <c r="C102">
-        <v>18.808499999999999</v>
+        <v>18.437799999999999</v>
       </c>
       <c r="D102">
         <v>-4.2</v>
@@ -1917,7 +1917,7 @@
         <v>34</v>
       </c>
       <c r="C103">
-        <v>11.6737</v>
+        <v>11.825699999999999</v>
       </c>
       <c r="D103">
         <v>-2.8</v>
@@ -1932,7 +1932,7 @@
         <v>43</v>
       </c>
       <c r="C104">
-        <v>3.3806600000000002</v>
+        <v>4.1870399999999997</v>
       </c>
       <c r="D104">
         <v>5.4</v>
@@ -1947,7 +1947,7 @@
         <v>34</v>
       </c>
       <c r="C105">
-        <v>0.43606899999999998</v>
+        <v>-1.60236</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -1962,7 +1962,7 @@
         <v>44</v>
       </c>
       <c r="C106">
-        <v>-9.1739700000000006</v>
+        <v>-9.1237899999999996</v>
       </c>
       <c r="D106">
         <v>41.5</v>
@@ -1977,7 +1977,7 @@
         <v>64</v>
       </c>
       <c r="C107">
-        <v>-18.404399999999999</v>
+        <v>-18.4575</v>
       </c>
       <c r="D107">
         <v>71.2</v>
@@ -1993,7 +1993,7 @@
         <v>68.5</v>
       </c>
       <c r="C108">
-        <v>-18.9651</v>
+        <v>-19.23</v>
       </c>
       <c r="D108">
         <v>37.700000000000003</v>
@@ -2008,7 +2008,7 @@
         <v>73</v>
       </c>
       <c r="C109">
-        <v>-21.8935</v>
+        <v>-19.804500000000001</v>
       </c>
       <c r="D109">
         <v>5.5</v>
@@ -2023,7 +2023,7 @@
         <v>82</v>
       </c>
       <c r="C110">
-        <v>1.0253300000000001</v>
+        <v>2.1103700000000001</v>
       </c>
       <c r="D110">
         <v>-15.1</v>
@@ -2038,7 +2038,7 @@
         <v>67</v>
       </c>
       <c r="C111">
-        <v>36.710799999999999</v>
+        <v>37.806699999999999</v>
       </c>
       <c r="D111">
         <v>-32.4</v>
@@ -2053,7 +2053,7 @@
         <v>65</v>
       </c>
       <c r="C112">
-        <v>54.735100000000003</v>
+        <v>55.825099999999999</v>
       </c>
       <c r="D112">
         <v>-18.2</v>
@@ -2068,7 +2068,7 @@
         <v>57</v>
       </c>
       <c r="C113">
-        <v>71.314999999999998</v>
+        <v>70.399100000000004</v>
       </c>
       <c r="D113">
         <v>-14.5</v>
@@ -2083,7 +2083,7 @@
         <v>42</v>
       </c>
       <c r="C114">
-        <v>53.360500000000002</v>
+        <v>52.158299999999997</v>
       </c>
       <c r="D114">
         <v>-1.5</v>
@@ -2098,7 +2098,7 @@
         <v>34</v>
       </c>
       <c r="C115">
-        <v>21.878299999999999</v>
+        <v>21.648599999999998</v>
       </c>
       <c r="D115">
         <v>24.2</v>
@@ -2113,7 +2113,7 @@
         <v>32</v>
       </c>
       <c r="C116">
-        <v>9.0723699999999994</v>
+        <v>8.2561</v>
       </c>
       <c r="D116">
         <v>39.1</v>
@@ -2128,7 +2128,7 @@
         <v>43</v>
       </c>
       <c r="C117">
-        <v>-1.5250600000000001</v>
+        <v>-2.3487300000000002</v>
       </c>
       <c r="D117">
         <v>44.8</v>
@@ -2143,7 +2143,7 @@
         <v>42</v>
       </c>
       <c r="C118">
-        <v>-8.6362799999999993</v>
+        <v>-8.3791399999999996</v>
       </c>
       <c r="D118">
         <v>46</v>
@@ -2158,7 +2158,7 @@
         <v>48</v>
       </c>
       <c r="C119">
-        <v>-2.86321</v>
+        <v>-3.31921</v>
       </c>
       <c r="D119">
         <v>50.8</v>
@@ -2173,7 +2173,7 @@
         <v>46</v>
       </c>
       <c r="C120">
-        <v>-1.30915</v>
+        <v>-0.67586900000000005</v>
       </c>
       <c r="D120">
         <v>33.9</v>
@@ -2188,7 +2188,7 @@
         <v>53</v>
       </c>
       <c r="C121">
-        <v>0.53677900000000001</v>
+        <v>2.1248300000000002</v>
       </c>
       <c r="D121">
         <v>14.5</v>
@@ -2202,7 +2202,7 @@
         <v>54</v>
       </c>
       <c r="C122">
-        <v>6.6716199999999999</v>
+        <v>7.8045</v>
       </c>
       <c r="D122">
         <v>15.6</v>
@@ -2215,8 +2215,22 @@
       <c r="B123">
         <v>52</v>
       </c>
+      <c r="C123">
+        <v>7.7673699999999997</v>
+      </c>
       <c r="D123">
         <v>7.9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A124" s="1">
+        <v>45657</v>
+      </c>
+      <c r="B124">
+        <v>51</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
